--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-9.847732623766648</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.13476389368088</v>
+        <v>-11.8648890718505</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.707098172422791</v>
+        <v>0.7102547153245471</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.52271855372811</v>
+        <v>-11.07136459661348</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.918113166311741</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.57672076070902</v>
+        <v>-12.43613242944069</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.6282825093156</v>
+        <v>0.8145349074588952</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.52893739757793</v>
+        <v>-10.8805050057868</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.10492252465679</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.82910108258898</v>
+        <v>-12.95579211383448</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.808210027269442</v>
+        <v>0.6787153577788291</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.65984733369235</v>
+        <v>-10.73193355313889</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.3943545614229</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.1907890408945</v>
+        <v>-13.49565322151306</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.526633870052439</v>
+        <v>0.929014003506948</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.67783615779688</v>
+        <v>-10.53922794761153</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.78585141020632</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.81191407231167</v>
+        <v>-14.22221056771465</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.623346711144269</v>
+        <v>0.9138269322105458</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.81398301504799</v>
+        <v>-10.20580627114129</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.25637778902045</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.11572095975392</v>
+        <v>-14.77062094914887</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.42499832309212</v>
+        <v>1.012647634059894</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.16304999341409</v>
+        <v>-10.16647699340474</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.78284936085164</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.62165991076959</v>
+        <v>-15.49724375686466</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.194181023992489</v>
+        <v>1.309332308756249</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.64845703022005</v>
+        <v>-9.547407453533726</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.34381808817481</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.33964179860984</v>
+        <v>-16.34699967280689</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.105166456971594</v>
+        <v>1.404408611992863</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.36470755073132</v>
+        <v>-8.964459577203032</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.90152045906081</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.126371368672</v>
+        <v>-17.03266975723377</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.061294150148969</v>
+        <v>1.635094988064077</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.981207815891478</v>
+        <v>-8.389642020937048</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.42026403372597</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.12217192281369</v>
+        <v>-18.01109682550448</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.931837459649982</v>
+        <v>1.802309879958602</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.81100787894904</v>
+        <v>-8.112477969777707</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.87328705269058</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.80760634578942</v>
+        <v>-18.91197818404366</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.900821794217933</v>
+        <v>2.032603486944563</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.385049805993482</v>
+        <v>-7.604051481222117</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.22601053058264</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.21273456492379</v>
+        <v>-19.46389730263946</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.080029235515479</v>
+        <v>1.97963202964694</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.762275144418256</v>
+        <v>-6.947629601343656</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.45771210840745</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.10043197450134</v>
+        <v>-20.42705874579672</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.539461143483452</v>
+        <v>2.448179363746632</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.817063248457001</v>
+        <v>-6.144089514432719</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.55943277356247</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.81481347906012</v>
+        <v>-21.31408844792935</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.495955421140396</v>
+        <v>2.515578538775838</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.460913334253527</v>
+        <v>-5.812932806354099</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.52034641862276</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.36831676629978</v>
+        <v>-22.03467570403511</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.416393496771227</v>
+        <v>2.694052811114248</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.896229220387039</v>
+        <v>-5.362570680901564</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.34774851415271</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.17594165169733</v>
+        <v>-22.91191236364212</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.247934836106737</v>
+        <v>2.994128392246609</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.750001289947801</v>
+        <v>-5.364194126453938</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.05676780990529</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.25373929853675</v>
+        <v>-23.92020297469481</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.16132925280872</v>
+        <v>2.902744118411361</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.398080189562204</v>
+        <v>-5.131033305145639</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.65724476885807</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.73422681282809</v>
+        <v>-24.5507151872495</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.805716123021756</v>
+        <v>3.172314633922501</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.39137693050724</v>
+        <v>-5.106825637191287</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.17105579083691</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.26875935325009</v>
+        <v>-25.01160352418678</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4519882848440011</v>
+        <v>3.444582163819037</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.06696275839211</v>
+        <v>-4.824817433980508</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.61653161546931</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.99858977516211</v>
+        <v>-25.71239521839585</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3561395357397246</v>
+        <v>3.378701695919471</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.76006608747921</v>
+        <v>-4.749562877246267</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.00409852167119</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.56633748789356</v>
+        <v>-26.22952808834119</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01782900263133883</v>
+        <v>3.592734662776009</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.957249260578446</v>
+        <v>-4.852730223639067</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.35832411741285</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.125234803904</v>
+        <v>-26.6819849822484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1156285048590326</v>
+        <v>3.574405438797592</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.696817172450831</v>
+        <v>-4.862209050896477</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.69844264284478</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.38764382976072</v>
+        <v>-27.0577209815031</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3908287105921145</v>
+        <v>3.78691969852449</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.741160802175757</v>
+        <v>-5.096718379397475</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.03784020253077</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.68715644187088</v>
+        <v>-27.18541021111845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2998110212364349</v>
+        <v>3.606952903662123</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.463446874297063</v>
+        <v>-4.776637759522956</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.402410677851442</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.23496457737438</v>
+        <v>-27.59480652097923</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8770506535281373</v>
+        <v>3.825489622696215</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.580400415582202</v>
+        <v>-4.835461476190831</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.806933575619558</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.02286927133842</v>
+        <v>-27.44190151609071</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7359156288943303</v>
+        <v>3.777624163506864</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.569559988829254</v>
+        <v>-4.785553617758171</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.25805820200951</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.20235165099565</v>
+        <v>-27.69792149816066</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5651265383240136</v>
+        <v>3.530362932038026</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.598821285680511</v>
+        <v>-4.849129840357593</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.769177771676529</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.09883081242612</v>
+        <v>-27.67185472320278</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7247086176618127</v>
+        <v>3.673042848407156</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.658469817427416</v>
+        <v>-4.886325072730937</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.337847720119316</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.79529886334354</v>
+        <v>-27.35018993468442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6197607180825365</v>
+        <v>3.526199579734357</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.724232454601405</v>
+        <v>-4.981702498932911</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.953709150825474</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.51918219641154</v>
+        <v>-27.10298107242695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4163063319221134</v>
+        <v>3.493652114869826</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.703376416174536</v>
+        <v>-4.864591850013672</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.614108251440018</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.29722838633576</v>
+        <v>-26.83015057350822</v>
       </c>
       <c r="F32" t="n">
-        <v>0.473729172185924</v>
+        <v>3.451075946028533</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.886223517662082</v>
+        <v>-5.071031281222008</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.306887716080676</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.13400664680796</v>
+        <v>-26.6206737280406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5373708562995544</v>
+        <v>3.521355427682918</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.312836205759726</v>
+        <v>-5.403903080972894</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.019672162698005</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.72154673808222</v>
+        <v>-26.13422921595627</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4824879227870387</v>
+        <v>3.432563429810332</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.376700459021666</v>
+        <v>-5.56103689967929</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.750220264496669</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.30374516979706</v>
+        <v>-25.78056683929272</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4395320771633355</v>
+        <v>3.423163156369973</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.492069831662956</v>
+        <v>-5.670030320836659</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.491121383004935</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.03225008576818</v>
+        <v>-25.49671262138126</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3861809430833018</v>
+        <v>3.423163156369973</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.408266001173067</v>
+        <v>-5.606611205871339</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.236733996287722</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.70660523718593</v>
+        <v>-25.04064225188973</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1220306409486366</v>
+        <v>3.187711182064371</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.433769807108749</v>
+        <v>-5.895021545171722</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.989574504968822</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.04825878878973</v>
+        <v>-24.46081034363537</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6074015841999472</v>
+        <v>3.619730991235648</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.336899858382819</v>
+        <v>-5.855037652293091</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.748826341379539</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.72537641610709</v>
+        <v>-24.09533870980858</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4440751062494144</v>
+        <v>3.552724585291694</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.454900783895296</v>
+        <v>-6.125472259791784</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.515548862305707</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.28678427090927</v>
+        <v>-23.53641520919246</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3017224974513269</v>
+        <v>3.559375475135291</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.048921565076212</v>
+        <v>-5.994784892825675</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.298004623518493</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.78348996506763</v>
+        <v>-23.06865341326327</v>
       </c>
       <c r="F41" t="n">
-        <v>0.500633854525671</v>
+        <v>3.701374591756652</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.303095532445481</v>
+        <v>-6.252022459059908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.10382476847948</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.45340682582203</v>
+        <v>-22.54183223921505</v>
       </c>
       <c r="F42" t="n">
-        <v>0.541547300906065</v>
+        <v>3.742667714919456</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.340068195670516</v>
+        <v>-6.371136230313932</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.941552995340917</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.82022378348763</v>
+        <v>-21.90207686085411</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5159911257590157</v>
+        <v>3.681631399071329</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.019869745070421</v>
+        <v>-6.186691867879695</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.823765200402037</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.68884252447091</v>
+        <v>-21.67298774572958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4516555495947738</v>
+        <v>3.709570373335572</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.844354333174242</v>
+        <v>-6.054682178326571</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.760943677407723</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.82204043022876</v>
+        <v>-20.90242716967695</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3281296722830884</v>
+        <v>3.615620008143346</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.951148247454202</v>
+        <v>-6.062157883249197</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.759665850416289</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.42373330087493</v>
+        <v>-20.33206099637716</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06219881696194847</v>
+        <v>3.332381128465444</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.008335426266861</v>
+        <v>-6.049222688041572</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.826150129109637</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.49979639703147</v>
+        <v>-19.46971028510119</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4205220534371492</v>
+        <v>3.620307052560684</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.839261427368811</v>
+        <v>-6.110010250135706</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.962444925450306</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.93465405256553</v>
+        <v>-18.79561379638639</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1507682456862253</v>
+        <v>3.443508594986015</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.218741825236241</v>
+        <v>-6.35003143813307</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.163409501718643</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.37584838267497</v>
+        <v>-18.23802571066012</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2378975210979123</v>
+        <v>3.529446470839105</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.569955941268384</v>
+        <v>-6.654060894723632</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.42312785358171</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.87942753582525</v>
+        <v>-17.65729043350968</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2165177905573736</v>
+        <v>3.425860170755368</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.475560437779539</v>
+        <v>-6.470192593614431</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.733883387165925</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.36152222001225</v>
+        <v>-17.24790721595175</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2963415609833775</v>
+        <v>3.550682186048384</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.707359659592299</v>
+        <v>-6.721067300667587</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.081829226582937</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.84572476495676</v>
+        <v>-16.90411643563086</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243741631573056</v>
+        <v>3.409756638260045</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.681855853656617</v>
+        <v>-6.711797950255645</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.455402992086777</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.79250137055127</v>
+        <v>-15.94981848149745</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1676835009577354</v>
+        <v>3.465032340857813</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.678268562677984</v>
+        <v>-6.785507615254562</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.845154300103382</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.97716511877994</v>
+        <v>-15.29991656843417</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06747501500716407</v>
+        <v>3.340288879381847</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.095336962004009</v>
+        <v>-7.203243722025515</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.237715537235493</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.4374742110383</v>
+        <v>-14.84803573585199</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08322505532576054</v>
+        <v>3.407400023748534</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.276743910178966</v>
+        <v>-7.449536123084067</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.625241586281287</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.33943904735946</v>
+        <v>-14.73965765292818</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1088259350595192</v>
+        <v>3.260923339555303</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.284402907341375</v>
+        <v>-7.562941650299098</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.003876908787844</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.85630688789409</v>
+        <v>-14.35471776477575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09185288289845801</v>
+        <v>3.372600682795226</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.109123156896347</v>
+        <v>-7.404472416702846</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.36579130291664</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.7010583607969</v>
+        <v>-14.23557780891605</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.04515806634020529</v>
+        <v>3.262494415896311</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.428378961691838</v>
+        <v>-7.696312939347761</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.709444095162934</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.15027827254832</v>
+        <v>-13.61843283756276</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.06380150558682321</v>
+        <v>3.29708428000415</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.958250642302175</v>
+        <v>-8.114507276718175</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.035986944724964</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.47912755197292</v>
+        <v>-13.20190122265325</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09728618857777434</v>
+        <v>3.447724316501051</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.969706407288685</v>
+        <v>-8.10611511059663</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.3410218660712</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.40221027277778</v>
+        <v>-13.1234128671171</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07011966018119274</v>
+        <v>3.429526015551052</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.226354819895041</v>
+        <v>-8.292745887605435</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.625797041127782</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.05205663327582</v>
+        <v>-12.8116196749414</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04294003948176942</v>
+        <v>3.40865688482134</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.195941400393712</v>
+        <v>-8.403938815640213</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.891482197534172</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.41769528368566</v>
+        <v>-12.31936218039534</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2799947024122458</v>
+        <v>3.240525531727894</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.24803567340094</v>
+        <v>-8.460340456282369</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.133454846173825</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.1710232058447</v>
+        <v>-12.17206068112308</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2523175742048369</v>
+        <v>3.22274618446883</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.180976898245619</v>
+        <v>-8.312449803382231</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.353021560418794</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.01085197287902</v>
+        <v>-12.03095184109495</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4089538854032476</v>
+        <v>3.100306968293008</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.462081732560319</v>
+        <v>-8.489798137676253</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.55016554179868</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.09576864911046</v>
+        <v>-12.11177062653693</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3869980935376729</v>
+        <v>3.149769688429049</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.526443493330245</v>
+        <v>-8.610627000602543</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.720515004186717</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.82431284199011</v>
+        <v>-11.98295545887719</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6882650742286315</v>
+        <v>2.972918861643013</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.345939914051367</v>
+        <v>-8.523615555916432</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.866112958705449</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.71453388266224</v>
+        <v>-11.74704525397212</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8424662170984811</v>
+        <v>2.733539196484894</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.259805653655651</v>
+        <v>-8.502209640770209</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.985759866970859</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.61143199778365</v>
+        <v>-11.70387993150295</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.040853882059156</v>
+        <v>2.625527698040654</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.097696759869399</v>
+        <v>-8.407643937344423</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.07503395024201</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.75214806872652</v>
+        <v>-11.83681917455784</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.064812796259515</v>
+        <v>2.55359858622821</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.11014753987188</v>
+        <v>-8.489837414584779</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.13621069215478</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.04061077723827</v>
+        <v>-11.98058575206283</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.044964865151458</v>
+        <v>2.513928908617781</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.813331942147109</v>
+        <v>-8.375868918347553</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.16744113143593</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.87808292976108</v>
+        <v>-11.93569224561855</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.289542174537743</v>
+        <v>2.335114236405486</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.735511294055889</v>
+        <v>-8.386251114501041</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.16621738862603</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.06187267705323</v>
+        <v>-12.12542589840085</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.40170393298281</v>
+        <v>2.156194825770458</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.224335421903537</v>
+        <v>-8.030559430897029</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.13649123998281</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.4291903255807</v>
+        <v>-12.44860939404886</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.418514449831586</v>
+        <v>2.161719777569666</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.942130834150131</v>
+        <v>-7.756825563082219</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.07716812613878</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.73984448740917</v>
+        <v>-12.74967999019719</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.58237771219863</v>
+        <v>2.037316715967585</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.387331408929147</v>
+        <v>-7.428955023016873</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.98841675265062</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.90281747318298</v>
+        <v>-12.88303818694301</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.761401861256392</v>
+        <v>1.879973420415721</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.263308024109477</v>
+        <v>-7.40595184692396</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.876510407716099</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.18765361380757</v>
+        <v>-13.22811201294238</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.728893673300386</v>
+        <v>1.986806611604206</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.034415293527579</v>
+        <v>-7.272331804121304</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.741449661995828</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.66486805238849</v>
+        <v>-13.53072750082604</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.831079096980058</v>
+        <v>1.849180324131981</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.531553033679723</v>
+        <v>-6.921706841717039</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.585622709845586</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.93610129036053</v>
+        <v>-13.85817908720045</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.183602443296374</v>
+        <v>1.574634733540986</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.537104170084615</v>
+        <v>-6.984091664757863</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.415830403158747</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.51708532126496</v>
+        <v>-14.34555315278655</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.876640310869265</v>
+        <v>1.781493118440257</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.329381693197789</v>
+        <v>-6.867125031169882</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.231377712364951</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.95749729655779</v>
+        <v>-14.80049758423369</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.012027814555554</v>
+        <v>1.720247325746663</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.125613091769164</v>
+        <v>-6.801336209390209</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.034540172032683</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.65883886748621</v>
+        <v>-15.45523055704556</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.955691635427607</v>
+        <v>1.767693831245078</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.074854233651792</v>
+        <v>-6.699609016309998</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.83083319259649</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.13915618184061</v>
+        <v>-16.14020674942183</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.024884455946129</v>
+        <v>1.775994351246732</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.008908304238018</v>
+        <v>-6.703353414922731</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.617855304808543</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.96374869172105</v>
+        <v>-16.96326745986978</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.064475579739509</v>
+        <v>1.77756542758774</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.777894620595761</v>
+        <v>-6.4153358447076</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.397514827780457</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.47144519467138</v>
+        <v>-18.30706142354455</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.083891464853789</v>
+        <v>1.746981808149467</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.399527068469879</v>
+        <v>-6.045373551006104</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.176252106094447</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.62520438259849</v>
+        <v>-19.37881042647108</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.102534904100406</v>
+        <v>1.73061642959731</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.007268583028924</v>
+        <v>-5.666940537366012</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.954418600725202</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.55598856082816</v>
+        <v>-20.38276748528316</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.326858420990541</v>
+        <v>1.567276859343935</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.850056210505477</v>
+        <v>-5.573147279807887</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.73794676348264</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.05787208131677</v>
+        <v>-21.83695574651936</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.401877316273632</v>
+        <v>1.523103429555952</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.510808459270671</v>
+        <v>-5.24034094157121</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.538258706083181</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.50563202185768</v>
+        <v>-23.36084742808491</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.388693367312013</v>
+        <v>1.633785757779904</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.742005435152712</v>
+        <v>-5.386568872010448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.360492850481269</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86611867165564</v>
+        <v>-24.74575122268269</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.356158994750324</v>
+        <v>1.62472588421343</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.546026753914914</v>
+        <v>-5.297397197355452</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.213221121349226</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.41809334281669</v>
+        <v>-26.21388278644533</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.404692161384602</v>
+        <v>1.567329228555302</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.3960413325601</v>
+        <v>-5.174853242756896</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.110047799086062</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.07938874270615</v>
+        <v>-27.91960036987677</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.40126197804007</v>
+        <v>1.603359245975733</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.604837378279948</v>
+        <v>-5.373201630809046</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.055828890568729</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.94233179096388</v>
+        <v>-29.81617754413489</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.261907506592738</v>
+        <v>1.646040153239759</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.109493283617121</v>
+        <v>-5.754279289623167</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.055405573246909</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.18754389759433</v>
+        <v>-31.99027226172908</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.266529089495867</v>
+        <v>1.59833180168451</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.975074610341119</v>
+        <v>-5.567949635579721</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.116351331548199</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.79030361147844</v>
+        <v>-33.81173889458422</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.31736650143029</v>
+        <v>1.435149339065236</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.304751888198624</v>
+        <v>-5.848897362260321</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.236198058995326</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.19500615132679</v>
+        <v>-36.25587545059185</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.015994782316597</v>
+        <v>1.534703209873721</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.927618195893741</v>
+        <v>-6.194717449521673</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.405165311306792</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.43296512218291</v>
+        <v>-38.51902401211546</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.900154086773005</v>
+        <v>1.578352947548036</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.436489822745949</v>
+        <v>-6.619392476798742</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.625019809863804</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.5930641680393</v>
+        <v>-40.7644848724999</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.205859358127308</v>
+        <v>1.162829439957334</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.454229893096489</v>
+        <v>-6.683007976306689</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.872241512237753</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.76376797919748</v>
+        <v>-42.99850306020067</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.302454368493564</v>
+        <v>1.087286852560574</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.038028769111896</v>
+        <v>-7.059071283132428</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.146485749549527</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.15700166175648</v>
+        <v>-45.2916853644432</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.431636120632875</v>
+        <v>0.8717744554829217</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.275235111998288</v>
+        <v>-7.141421868006885</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.417578178534013</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.01800704919363</v>
+        <v>-47.30882955557077</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.402937792803811</v>
+        <v>0.6273542537307376</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.702567876752227</v>
+        <v>-7.178800392620014</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.707720071756752</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.6677974982391</v>
+        <v>-49.91565106668969</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.143526904297851</v>
+        <v>0.6353143738585071</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.306633637566627</v>
+        <v>-7.480682711544533</v>
       </c>
     </row>
   </sheetData>
